--- a/data/bsc_stats.xlsx
+++ b/data/bsc_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070DA7B2-2CD5-E943-88A3-12C0281331A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F061E7E-8A35-3E49-9E83-58D74A333229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19260" yWindow="1880" windowWidth="18900" windowHeight="16740" xr2:uid="{9AB36089-2A1E-A444-9F4E-CE79D745AFAD}"/>
   </bookViews>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0586C9AE-BA6B-444C-810B-D9BD6C3F18D2}">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -796,6 +796,22 @@
         <v>37</v>
       </c>
     </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>46</v>
+      </c>
+      <c r="B56">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>41</v>
+      </c>
+      <c r="B57">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/bsc_stats.xlsx
+++ b/data/bsc_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F061E7E-8A35-3E49-9E83-58D74A333229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E860C1-580C-1E45-9C27-D7DB118DB8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19260" yWindow="1880" windowWidth="18900" windowHeight="16740" xr2:uid="{9AB36089-2A1E-A444-9F4E-CE79D745AFAD}"/>
   </bookViews>
@@ -103,9 +103,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -143,7 +143,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -249,7 +249,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -391,7 +391,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0586C9AE-BA6B-444C-810B-D9BD6C3F18D2}">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -812,6 +812,54 @@
         <v>32</v>
       </c>
     </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>71</v>
+      </c>
+      <c r="B58">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>66</v>
+      </c>
+      <c r="B59">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>76</v>
+      </c>
+      <c r="B60">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>55</v>
+      </c>
+      <c r="B61">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>64</v>
+      </c>
+      <c r="B62">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>50</v>
+      </c>
+      <c r="B63">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/bsc_stats.xlsx
+++ b/data/bsc_stats.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E860C1-580C-1E45-9C27-D7DB118DB8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7648FF18-8463-3144-826F-52EC1002E2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19260" yWindow="1880" windowWidth="18900" windowHeight="16740" xr2:uid="{9AB36089-2A1E-A444-9F4E-CE79D745AFAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0586C9AE-BA6B-444C-810B-D9BD6C3F18D2}">
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -860,6 +860,174 @@
         <v>64</v>
       </c>
     </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>104</v>
+      </c>
+      <c r="B65">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>84</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>58</v>
+      </c>
+      <c r="B68">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>43</v>
+      </c>
+      <c r="B69">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>40</v>
+      </c>
+      <c r="B70">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>49</v>
+      </c>
+      <c r="B71">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>47</v>
+      </c>
+      <c r="B72">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>76</v>
+      </c>
+      <c r="B73">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>66</v>
+      </c>
+      <c r="B74">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>57</v>
+      </c>
+      <c r="B75">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>55</v>
+      </c>
+      <c r="B76">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>71</v>
+      </c>
+      <c r="B77">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>99</v>
+      </c>
+      <c r="B79">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>63</v>
+      </c>
+      <c r="B80">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>61</v>
+      </c>
+      <c r="B81">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>74</v>
+      </c>
+      <c r="B82">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>51</v>
+      </c>
+      <c r="B83">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>64</v>
+      </c>
+      <c r="B84">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/bsc_stats.xlsx
+++ b/data/bsc_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7648FF18-8463-3144-826F-52EC1002E2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B823C763-8234-7747-B427-B663A446C188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19260" yWindow="1880" windowWidth="18900" windowHeight="16740" xr2:uid="{9AB36089-2A1E-A444-9F4E-CE79D745AFAD}"/>
   </bookViews>
@@ -82,9 +82,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -399,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0586C9AE-BA6B-444C-810B-D9BD6C3F18D2}">
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="J104" sqref="J104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1028,6 +1029,198 @@
         <v>63</v>
       </c>
     </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>100</v>
+      </c>
+      <c r="B85">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>48</v>
+      </c>
+      <c r="B86">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>63</v>
+      </c>
+      <c r="B87">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>76</v>
+      </c>
+      <c r="B88">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>57</v>
+      </c>
+      <c r="B89">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>66</v>
+      </c>
+      <c r="B90">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>84</v>
+      </c>
+      <c r="B91">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>58</v>
+      </c>
+      <c r="B92">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>43</v>
+      </c>
+      <c r="B93">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>55</v>
+      </c>
+      <c r="B94">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>56</v>
+      </c>
+      <c r="B95">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>41</v>
+      </c>
+      <c r="B97">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>38</v>
+      </c>
+      <c r="B99">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>77</v>
+      </c>
+      <c r="B100">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>76</v>
+      </c>
+      <c r="B101">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>64</v>
+      </c>
+      <c r="B102">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>48</v>
+      </c>
+      <c r="B103">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>59</v>
+      </c>
+      <c r="B104">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>46</v>
+      </c>
+      <c r="B105">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="2">
+        <v>80</v>
+      </c>
+      <c r="B106" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>53</v>
+      </c>
+      <c r="B107">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>67</v>
+      </c>
+      <c r="B108">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
